--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>753571.883119772</v>
+        <v>750871.3456509472</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673424</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>85.85075408743535</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>239.8079481415046</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>36.77700390724898</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>78.78174892900093</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664346</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4458084395867</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183515</v>
+        <v>20.90078060183512</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>13.72219866446392</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>239.8079481415046</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -826,19 +826,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176904</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="V4" t="n">
-        <v>228.2993540433149</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>8.690045061217598</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>34.90832624883068</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>311.7067388205109</v>
+        <v>12.32572783638013</v>
       </c>
       <c r="H5" t="n">
-        <v>308.9865017432183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>141.1814615316175</v>
       </c>
       <c r="T5" t="n">
-        <v>210.0639896953817</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1074921335361</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.303793721481133</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7506765600919</v>
       </c>
       <c r="H6" t="n">
-        <v>96.85195735900767</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55541033175702</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.261993899359098</v>
+        <v>1.261993899359084</v>
       </c>
       <c r="S6" t="n">
         <v>142.096855515207</v>
       </c>
       <c r="T6" t="n">
-        <v>193.7444632813738</v>
+        <v>193.7444632813737</v>
       </c>
       <c r="U6" t="n">
         <v>225.8365899360328</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>46.99810017405735</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>130.4309922073425</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>137.8479083359735</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.35439427591</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.2918344467883</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>117.523540462315</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>178.4795138642706</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>20.87967777495601</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1348,10 +1348,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>245.5761046894312</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>307.6000736915415</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>307.6000736915384</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184543</v>
+        <v>24.1466220418454</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615203</v>
+        <v>98.88510599615202</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544491</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812548</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530784</v>
+        <v>10.48847705530783</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>50.04039518888644</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.8133067990523</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.53779970793504</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.2221689967085</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722608</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>26.05480806223644</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890408</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795568</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>57.24347904696279</v>
+        <v>120.7871326503944</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272907</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146485</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.29683349370589</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.15578456998</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>12.74007641193998</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.799772605715493</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673022</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.1230996349831</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987833667</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3670,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>99.97427419833835</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>240.7377005646513</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>33.84547402811469</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>717.0015419180339</v>
+        <v>281.4077649716771</v>
       </c>
       <c r="C2" t="n">
-        <v>717.0015419180339</v>
+        <v>281.4077649716771</v>
       </c>
       <c r="D2" t="n">
-        <v>630.283608496382</v>
+        <v>281.4077649716771</v>
       </c>
       <c r="E2" t="n">
-        <v>388.0533578483976</v>
+        <v>39.17751432369235</v>
       </c>
       <c r="F2" t="n">
-        <v>381.1078570991941</v>
+        <v>32.23201357448887</v>
       </c>
       <c r="G2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="H2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470337</v>
+        <v>40.41888584470325</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192955</v>
+        <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605485</v>
+        <v>262.3106962605486</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859557</v>
+        <v>449.0101090859561</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779379</v>
+        <v>643.3443219779382</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948972</v>
+        <v>813.5133472948976</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444234</v>
+        <v>924.2476725444243</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660183</v>
+        <v>959.2317925660193</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660184</v>
+        <v>803.0167550628474</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660184</v>
+        <v>803.0167550628474</v>
       </c>
       <c r="U2" t="n">
-        <v>717.0015419180339</v>
+        <v>560.7865044148627</v>
       </c>
       <c r="V2" t="n">
-        <v>717.0015419180339</v>
+        <v>318.5562537668781</v>
       </c>
       <c r="W2" t="n">
-        <v>717.0015419180339</v>
+        <v>318.5562537668781</v>
       </c>
       <c r="X2" t="n">
-        <v>717.0015419180339</v>
+        <v>318.5562537668781</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.0015419180339</v>
+        <v>281.4077649716771</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>474.1773353829061</v>
+        <v>98.76216002202841</v>
       </c>
       <c r="C3" t="n">
-        <v>474.1773353829061</v>
+        <v>98.76216002202841</v>
       </c>
       <c r="D3" t="n">
-        <v>325.2429257216548</v>
+        <v>98.76216002202841</v>
       </c>
       <c r="E3" t="n">
-        <v>166.0054707161993</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="F3" t="n">
-        <v>166.0054707161993</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="G3" t="n">
-        <v>166.0054707161993</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="H3" t="n">
-        <v>65.0894928610039</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467723</v>
+        <v>86.79245551467734</v>
       </c>
       <c r="L3" t="n">
-        <v>224.022053530371</v>
+        <v>224.0220535303712</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849756</v>
+        <v>403.5193898849759</v>
       </c>
       <c r="N3" t="n">
-        <v>602.17613153764</v>
+        <v>602.1761315376405</v>
       </c>
       <c r="O3" t="n">
-        <v>761.6884442064004</v>
+        <v>761.688444206401</v>
       </c>
       <c r="P3" t="n">
-        <v>870.378071733699</v>
+        <v>870.3780717336997</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="R3" t="n">
-        <v>938.1198929682051</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="S3" t="n">
-        <v>938.1198929682051</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="T3" t="n">
-        <v>938.1198929682051</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="U3" t="n">
-        <v>938.1198929682051</v>
+        <v>709.981105479372</v>
       </c>
       <c r="V3" t="n">
-        <v>924.2590862364234</v>
+        <v>474.8289972476293</v>
       </c>
       <c r="W3" t="n">
-        <v>682.0288355884389</v>
+        <v>474.8289972476293</v>
       </c>
       <c r="X3" t="n">
-        <v>474.1773353829061</v>
+        <v>266.9774970420964</v>
       </c>
       <c r="Y3" t="n">
-        <v>474.1773353829061</v>
+        <v>266.9774970420964</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.8338052979277</v>
+        <v>482.5945219362405</v>
       </c>
       <c r="C4" t="n">
-        <v>507.8338052979277</v>
+        <v>482.5945219362405</v>
       </c>
       <c r="D4" t="n">
-        <v>507.8338052979277</v>
+        <v>482.5945219362405</v>
       </c>
       <c r="E4" t="n">
-        <v>359.9207117155346</v>
+        <v>334.6814283538474</v>
       </c>
       <c r="F4" t="n">
-        <v>359.9207117155346</v>
+        <v>187.791480855937</v>
       </c>
       <c r="G4" t="n">
-        <v>191.313866710918</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="H4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="K4" t="n">
-        <v>63.76336012264372</v>
+        <v>120.2325654469302</v>
       </c>
       <c r="L4" t="n">
-        <v>248.596355023462</v>
+        <v>305.0655603477485</v>
       </c>
       <c r="M4" t="n">
-        <v>453.8659557426998</v>
+        <v>510.3351610669864</v>
       </c>
       <c r="N4" t="n">
-        <v>659.689320578804</v>
+        <v>716.1585259030905</v>
       </c>
       <c r="O4" t="n">
-        <v>833.7842159674028</v>
+        <v>830.3658965470439</v>
       </c>
       <c r="P4" t="n">
-        <v>959.2317925660184</v>
+        <v>955.8134731456595</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="T4" t="n">
-        <v>959.2317925660184</v>
+        <v>733.6025958783844</v>
       </c>
       <c r="U4" t="n">
-        <v>959.2317925660184</v>
+        <v>491.3723452303997</v>
       </c>
       <c r="V4" t="n">
-        <v>728.6263844414578</v>
+        <v>491.3723452303997</v>
       </c>
       <c r="W4" t="n">
-        <v>728.6263844414578</v>
+        <v>482.5945219362405</v>
       </c>
       <c r="X4" t="n">
-        <v>728.6263844414578</v>
+        <v>482.5945219362405</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.8338052979277</v>
+        <v>482.5945219362405</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>666.7593762997719</v>
+        <v>1211.037910760298</v>
       </c>
       <c r="C5" t="n">
-        <v>666.7593762997719</v>
+        <v>842.0753938198859</v>
       </c>
       <c r="D5" t="n">
-        <v>666.7593762997719</v>
+        <v>842.0753938198859</v>
       </c>
       <c r="E5" t="n">
-        <v>666.7593762997719</v>
+        <v>456.2871412216416</v>
       </c>
       <c r="F5" t="n">
-        <v>659.8138755505685</v>
+        <v>45.30123643203405</v>
       </c>
       <c r="G5" t="n">
-        <v>344.9585838126787</v>
+        <v>32.85100629427634</v>
       </c>
       <c r="H5" t="n">
         <v>32.85100629427634</v>
@@ -4565,13 +4565,13 @@
         <v>32.85100629427634</v>
       </c>
       <c r="J5" t="n">
-        <v>103.7588362828603</v>
+        <v>103.7588362828604</v>
       </c>
       <c r="K5" t="n">
-        <v>260.7698107230119</v>
+        <v>260.769810723012</v>
       </c>
       <c r="L5" t="n">
-        <v>492.4575702340412</v>
+        <v>492.457570234041</v>
       </c>
       <c r="M5" t="n">
         <v>781.9242815861696</v>
@@ -4592,25 +4592,25 @@
         <v>1642.550314713817</v>
       </c>
       <c r="S5" t="n">
-        <v>1642.550314713817</v>
+        <v>1499.942777813193</v>
       </c>
       <c r="T5" t="n">
-        <v>1430.364466536663</v>
+        <v>1499.942777813193</v>
       </c>
       <c r="U5" t="n">
-        <v>1430.364466536663</v>
+        <v>1246.298846365177</v>
       </c>
       <c r="V5" t="n">
-        <v>1430.364466536663</v>
+        <v>1246.298846365177</v>
       </c>
       <c r="W5" t="n">
-        <v>1430.364466536663</v>
+        <v>1246.298846365177</v>
       </c>
       <c r="X5" t="n">
-        <v>1056.898708275584</v>
+        <v>1246.298846365177</v>
       </c>
       <c r="Y5" t="n">
-        <v>666.7593762997719</v>
+        <v>1246.298846365177</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.5857211334326</v>
+        <v>329.2103568149762</v>
       </c>
       <c r="C6" t="n">
-        <v>165.5857211334326</v>
+        <v>329.2103568149762</v>
       </c>
       <c r="D6" t="n">
-        <v>165.5857211334326</v>
+        <v>329.2103568149762</v>
       </c>
       <c r="E6" t="n">
-        <v>165.5857211334326</v>
+        <v>169.9729018095207</v>
       </c>
       <c r="F6" t="n">
-        <v>165.5857211334326</v>
+        <v>169.9729018095207</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5857211334326</v>
+        <v>32.85100629427634</v>
       </c>
       <c r="H6" t="n">
-        <v>67.75546117483898</v>
+        <v>32.85100629427634</v>
       </c>
       <c r="I6" t="n">
         <v>32.85100629427634</v>
       </c>
       <c r="J6" t="n">
-        <v>107.024074976901</v>
+        <v>56.26537711121834</v>
       </c>
       <c r="K6" t="n">
-        <v>225.197788814093</v>
+        <v>174.4390909484104</v>
       </c>
       <c r="L6" t="n">
-        <v>430.4194717654335</v>
+        <v>379.660773899751</v>
       </c>
       <c r="M6" t="n">
-        <v>689.2603642604747</v>
+        <v>638.5016663947922</v>
       </c>
       <c r="N6" t="n">
-        <v>969.3606498904933</v>
+        <v>969.3606498904934</v>
       </c>
       <c r="O6" t="n">
         <v>1203.377894010704</v>
@@ -4674,7 +4674,7 @@
         <v>1497.743396113245</v>
       </c>
       <c r="T6" t="n">
-        <v>1302.041918051251</v>
+        <v>1302.041918051252</v>
       </c>
       <c r="U6" t="n">
         <v>1073.924150439097</v>
@@ -4689,7 +4689,7 @@
         <v>376.68318527362</v>
       </c>
       <c r="Y6" t="n">
-        <v>168.9228865086661</v>
+        <v>329.2103568149762</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>440.4208417070761</v>
+        <v>281.0558817024893</v>
       </c>
       <c r="C7" t="n">
-        <v>440.4208417070761</v>
+        <v>149.3074047253756</v>
       </c>
       <c r="D7" t="n">
-        <v>440.4208417070761</v>
+        <v>149.3074047253756</v>
       </c>
       <c r="E7" t="n">
-        <v>440.4208417070761</v>
+        <v>149.3074047253756</v>
       </c>
       <c r="F7" t="n">
-        <v>440.4208417070761</v>
+        <v>149.3074047253756</v>
       </c>
       <c r="G7" t="n">
-        <v>301.1805302565979</v>
+        <v>149.3074047253756</v>
       </c>
       <c r="H7" t="n">
         <v>149.3074047253756</v>
@@ -4723,7 +4723,7 @@
         <v>32.85100629427634</v>
       </c>
       <c r="J7" t="n">
-        <v>33.89295411735824</v>
+        <v>33.89295411735826</v>
       </c>
       <c r="K7" t="n">
         <v>165.4420311779937</v>
@@ -4732,10 +4732,10 @@
         <v>389.3059936565139</v>
       </c>
       <c r="M7" t="n">
-        <v>635.7282771409659</v>
+        <v>635.728277140966</v>
       </c>
       <c r="N7" t="n">
-        <v>881.7258059268963</v>
+        <v>881.7258059268964</v>
       </c>
       <c r="O7" t="n">
         <v>1092.928044100019</v>
@@ -4762,13 +4762,13 @@
         <v>729.8380117440367</v>
       </c>
       <c r="W7" t="n">
-        <v>440.4208417070761</v>
+        <v>729.8380117440367</v>
       </c>
       <c r="X7" t="n">
-        <v>440.4208417070761</v>
+        <v>501.8484608460194</v>
       </c>
       <c r="Y7" t="n">
-        <v>440.4208417070761</v>
+        <v>281.0558817024893</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1621.991392838317</v>
+        <v>970.5047989601117</v>
       </c>
       <c r="C8" t="n">
-        <v>1621.991392838317</v>
+        <v>601.5422820197</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>236.331082663746</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2382.056991163518</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2382.056991163518</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.056991163518</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>2008.591232902438</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="Y8" t="n">
-        <v>2008.591232902438</v>
+        <v>1357.104639024233</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>813.841548125043</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>644.9053651971361</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>494.7887257848004</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
         <v>199.9856847044969</v>
@@ -4954,13 +4954,13 @@
         <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1615.35553646343</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1615.35553646343</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1392.377055658166</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1103.258718162004</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V10" t="n">
-        <v>1103.258718162004</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>813.841548125043</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>813.841548125043</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>813.841548125043</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1485.490329133575</v>
+        <v>1485.490329133578</v>
       </c>
       <c r="C11" t="n">
-        <v>1116.527812193164</v>
+        <v>1116.527812193166</v>
       </c>
       <c r="D11" t="n">
-        <v>1116.527812193164</v>
+        <v>1116.527812193166</v>
       </c>
       <c r="E11" t="n">
-        <v>1116.527812193164</v>
+        <v>805.8206670501952</v>
       </c>
       <c r="F11" t="n">
-        <v>705.5419074035561</v>
+        <v>394.8347622605877</v>
       </c>
       <c r="G11" t="n">
         <v>394.8347622605877</v>
@@ -5036,55 +5036,55 @@
         <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592084</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.4060796706885</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656967</v>
+        <v>695.1615405656958</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625331</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087833</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484045</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
         <v>3033.988513535299</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479997</v>
+        <v>3493.12796748</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464064</v>
+        <v>3789.749829464066</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796039</v>
+        <v>3876.883295796042</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345381</v>
+        <v>3776.999350345383</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926745</v>
+        <v>3573.020743926748</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048274</v>
+        <v>3319.526802048276</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704703</v>
+        <v>2988.463914704706</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434588</v>
+        <v>2635.695259434591</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.229501173509</v>
+        <v>2262.229501173511</v>
       </c>
       <c r="Y11" t="n">
-        <v>1872.090169197697</v>
+        <v>1872.0901691977</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390854</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592084</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870415</v>
+        <v>193.8410919870416</v>
       </c>
       <c r="K12" t="n">
-        <v>470.776996404666</v>
+        <v>470.7769964046662</v>
       </c>
       <c r="L12" t="n">
-        <v>889.474037062618</v>
+        <v>889.4740370626184</v>
       </c>
       <c r="M12" t="n">
         <v>1397.430603019147</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450732</v>
+        <v>1532.266717861143</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.9393830626148</v>
+        <v>394.386942426221</v>
       </c>
       <c r="C13" t="n">
-        <v>573.0032001347079</v>
+        <v>225.450759498314</v>
       </c>
       <c r="D13" t="n">
-        <v>422.886560722372</v>
+        <v>225.450759498314</v>
       </c>
       <c r="E13" t="n">
-        <v>274.973467139979</v>
+        <v>77.53766591592084</v>
       </c>
       <c r="F13" t="n">
-        <v>128.0835196420687</v>
+        <v>77.53766591592084</v>
       </c>
       <c r="G13" t="n">
-        <v>128.0835196420687</v>
+        <v>77.53766591592084</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592084</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592084</v>
       </c>
       <c r="J13" t="n">
-        <v>136.855221875865</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648147</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344817</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
         <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336949</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
         <v>1786.049800818666</v>
@@ -5218,31 +5218,31 @@
         <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.36296874281</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742809</v>
+        <v>2056.743466925585</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742809</v>
+        <v>1868.627619458881</v>
       </c>
       <c r="T13" t="n">
-        <v>1916.471636177249</v>
+        <v>1647.736286893322</v>
       </c>
       <c r="U13" t="n">
-        <v>1916.471636177249</v>
+        <v>1358.644593842773</v>
       </c>
       <c r="V13" t="n">
-        <v>1661.787147971362</v>
+        <v>1103.960105636886</v>
       </c>
       <c r="W13" t="n">
-        <v>1372.369977934402</v>
+        <v>814.5429355999249</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.380427036385</v>
+        <v>796.8279863999908</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.5878478928545</v>
+        <v>576.0354072564606</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1026.887310050511</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5348780504994</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
@@ -5458,7 +5458,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5543,22 +5543,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876694</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597625</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474267</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179091</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5744,52 +5744,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591808</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400688</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133955</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310024</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138386</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703086</v>
       </c>
     </row>
     <row r="23">
@@ -5981,28 +5981,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,13 +6169,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
         <v>1688.385853854706</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>719.573870001194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>550.6376870732871</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>550.6376870732871</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,49 +6385,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614397</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>901.2223348314337</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836011</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556942</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D31" t="n">
-        <v>415.5933575433585</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>415.5933575433585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>415.5933575433585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>248.3972582582384</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>106.6854271004365</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
         <v>435.7419440038341</v>
@@ -6634,7 +6634,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
         <v>2327.76484885336</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138409</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="32">
@@ -6695,31 +6695,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,19 +6859,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="35">
@@ -6914,43 +6914,43 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,10 +6962,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832229</v>
+        <v>580.8993044876684</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>411.9631215597615</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7120,25 +7120,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614382</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630038</v>
+        <v>762.5477693179081</v>
       </c>
     </row>
     <row r="38">
@@ -7157,34 +7157,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7254,22 +7254,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.7594328861248</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,7 +7348,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1734.291686000759</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1479.607197794873</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1190.190027757912</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>962.2004768598947</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>741.4078977163646</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7500,16 +7500,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7573,7 +7573,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925707</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171303</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892234</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>564.5188827892234</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>416.6057892068302</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>269.7158417089198</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,10 +7804,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797742</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.10353054737</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928469</v>
+        <v>6.233205181928426</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.78462588923487</v>
+        <v>66.78462588923516</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>49.70416500698953</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8149,13 +8149,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>102.5492171288668</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.89011047839809</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>28.58095358104316</v>
+        <v>28.58095358104313</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>51.27141198553807</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>51.27141198553784</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.9393975111059</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23264,13 +23264,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>74.33029638072031</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>102.8695332217275</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>92.91149977763146</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992737</v>
+        <v>90.25352389927369</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905233</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.1718556811021</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>27.60981118522884</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>45.44677382459334</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.828130053814931e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>120.3791545843327</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253798</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>110.003342051665</v>
+        <v>46.45968844823342</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194254</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>137.2878198583889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.4596884482324</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>68.52575990662555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124969</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194194</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.70888054695422</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303787</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25558,10 +25558,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>45.44677382459286</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823105</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>131.6786642641542</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>909620.7035363821</v>
+        <v>909620.7035363824</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787483</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787487</v>
@@ -26320,40 +26320,40 @@
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>384609.3532440581</v>
+        <v>384609.3532440583</v>
       </c>
       <c r="F2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372534</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372534</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="H2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="I2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="J2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.964837253</v>
       </c>
       <c r="K2" t="n">
-        <v>423751.964837253</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="L2" t="n">
         <v>423751.9648372531</v>
       </c>
       <c r="M2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="N2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="O2" t="n">
         <v>423751.9648372531</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>423751.9648372532</v>
-      </c>
-      <c r="O2" t="n">
-        <v>423751.9648372529</v>
-      </c>
-      <c r="P2" t="n">
-        <v>423751.9648372531</v>
       </c>
     </row>
     <row r="3">
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800889</v>
+        <v>652246.4444800892</v>
       </c>
       <c r="C3" t="n">
-        <v>189098.6751706871</v>
+        <v>189098.675170687</v>
       </c>
       <c r="D3" t="n">
-        <v>237173.5150517689</v>
+        <v>237173.5150517687</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545783</v>
+        <v>313577.1573545787</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.268770428</v>
+        <v>189308.2687704274</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353582</v>
+        <v>62744.31078353588</v>
       </c>
       <c r="K3" t="n">
-        <v>43966.08035203364</v>
+        <v>43966.08035203359</v>
       </c>
       <c r="L3" t="n">
-        <v>58197.5803157223</v>
+        <v>58197.58031572224</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273097</v>
+        <v>81897.40371273112</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202344</v>
+        <v>49839.57413202327</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060264</v>
+        <v>261062.8075060263</v>
       </c>
       <c r="C4" t="n">
         <v>210476.9869351604</v>
@@ -26430,16 +26430,16 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683045</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26448,16 +26448,16 @@
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683044</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437329</v>
+        <v>61145.7022343733</v>
       </c>
       <c r="C5" t="n">
-        <v>74737.94401911827</v>
+        <v>74737.94401911828</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738574</v>
+        <v>85137.48506738579</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-543408.0250417398</v>
+        <v>-543408.0250417405</v>
       </c>
       <c r="C6" t="n">
-        <v>-43266.67694621711</v>
+        <v>-43266.67694621695</v>
       </c>
       <c r="D6" t="n">
-        <v>-43015.45229568373</v>
+        <v>-43015.45229568356</v>
       </c>
       <c r="E6" t="n">
-        <v>-26996.73476508987</v>
+        <v>-27217.86607906487</v>
       </c>
       <c r="F6" t="n">
-        <v>120324.3020960878</v>
+        <v>120289.5641706528</v>
       </c>
       <c r="G6" t="n">
-        <v>309632.5708665158</v>
+        <v>309597.8329410799</v>
       </c>
       <c r="H6" t="n">
-        <v>309632.5708665157</v>
+        <v>309597.8329410798</v>
       </c>
       <c r="I6" t="n">
-        <v>309632.5708665156</v>
+        <v>309597.8329410798</v>
       </c>
       <c r="J6" t="n">
-        <v>246888.2600829797</v>
+        <v>246853.5221575439</v>
       </c>
       <c r="K6" t="n">
-        <v>265666.4905144818</v>
+        <v>265631.7525890462</v>
       </c>
       <c r="L6" t="n">
-        <v>251434.9905507932</v>
+        <v>251400.2526253575</v>
       </c>
       <c r="M6" t="n">
-        <v>227735.1671537845</v>
+        <v>227700.4292283487</v>
       </c>
       <c r="N6" t="n">
-        <v>259792.9967344921</v>
+        <v>259758.2588090568</v>
       </c>
       <c r="O6" t="n">
-        <v>309632.5708665153</v>
+        <v>309597.8329410798</v>
       </c>
       <c r="P6" t="n">
-        <v>309632.5708665155</v>
+        <v>309597.8329410799</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.4761003380648</v>
       </c>
       <c r="C3" t="n">
-        <v>740.5311575902871</v>
+        <v>740.5311575902872</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.241237214952</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="C4" t="n">
         <v>410.6375786784542</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490099</v>
+        <v>969.2208239490105</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.4761003380648</v>
       </c>
       <c r="C3" t="n">
-        <v>147.0550572522225</v>
+        <v>147.0550572522224</v>
       </c>
       <c r="D3" t="n">
-        <v>193.533734527252</v>
+        <v>193.5337345272519</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974122</v>
+        <v>268.1763450974124</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267225</v>
+        <v>165.734263126722</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8296305369496</v>
+        <v>170.8296305369494</v>
       </c>
       <c r="D4" t="n">
-        <v>229.9472534215847</v>
+        <v>229.9472534215845</v>
       </c>
       <c r="E4" t="n">
-        <v>328.635991848971</v>
+        <v>328.6359918489718</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506385</v>
+        <v>203.4874641506376</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="K4" t="n">
-        <v>170.8296305369496</v>
+        <v>170.8296305369494</v>
       </c>
       <c r="L4" t="n">
-        <v>229.9472534215847</v>
+        <v>229.9472534215845</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848971</v>
+        <v>328.6359918489716</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506385</v>
+        <v>203.4874641506378</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="K4" t="n">
-        <v>170.8296305369496</v>
+        <v>170.8296305369494</v>
       </c>
       <c r="L4" t="n">
-        <v>229.9472534215847</v>
+        <v>229.9472534215845</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848971</v>
+        <v>328.6359918489718</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506385</v>
+        <v>203.4874641506376</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>268.8322875332476</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>142.1224219307572</v>
+        <v>142.1224219307569</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>173.1089558044322</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>11.34683808079604</v>
+        <v>11.34683808079578</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>87.94431032863005</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>349.4609347488046</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>78.86333152640002</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,13 +27512,13 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>219.0783884849614</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.88703501941501</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176901</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>46.45270651659214</v>
       </c>
       <c r="V4" t="n">
-        <v>23.8382892805131</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>277.8329532753734</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>347.8255154146499</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>100.6189890158693</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.9865017432183</v>
       </c>
       <c r="I5" t="n">
-        <v>95.70472393020673</v>
+        <v>95.7047239302067</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>141.1814615316175</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.0639896953817</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1074921335361</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.2293899283862</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7506765600919</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.85195735900766</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>34.55541033175701</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>158.684595603247</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>36.81582889128532</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>28.80768696781428</v>
+        <v>166.6555953037877</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.35439427591</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>294.024162310639</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>72.56573626419143</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>80.67789464461762</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>6.561538634396783</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-3.633253697898908e-12</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29010,7 +29010,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-9.831888791845538e-13</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29460,7 +29460,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29706,7 +29706,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198248</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055156</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651554</v>
+        <v>91.97984867651557</v>
       </c>
       <c r="J2" t="n">
-        <v>202.49464189374</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779019</v>
+        <v>303.486976877902</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712528</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074821</v>
+        <v>418.9314987074823</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359667</v>
+        <v>425.7102483359669</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822516</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426698</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457574</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810513</v>
+        <v>54.36718245810515</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916533</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840365</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182838</v>
+        <v>43.95082441182839</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847382</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070427</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L3" t="n">
-        <v>277.170135351282</v>
+        <v>277.1701353512821</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842452</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900651</v>
+        <v>332.0050874900652</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947075</v>
+        <v>303.7197925947076</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671572</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607456</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080798</v>
+        <v>79.25705355080801</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784624</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308313</v>
+        <v>5.145325813308315</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897144</v>
+        <v>0.08398246702897147</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888313</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207009</v>
+        <v>9.515075838207013</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784128</v>
+        <v>32.18391704784129</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490373</v>
+        <v>75.66333823490376</v>
       </c>
       <c r="K4" t="n">
         <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889952</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676925</v>
+        <v>167.7591540676926</v>
       </c>
       <c r="N4" t="n">
         <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714136</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>129.4361645720919</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104776</v>
+        <v>89.61489115104779</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937814</v>
+        <v>48.12020970937816</v>
       </c>
       <c r="S4" t="n">
         <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522791</v>
+        <v>4.572684707522793</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.05837469839390808</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31288,19 +31288,19 @@
         <v>252.6699752222257</v>
       </c>
       <c r="K5" t="n">
-        <v>378.6867949239215</v>
+        <v>378.6867949239216</v>
       </c>
       <c r="L5" t="n">
-        <v>469.7944548801175</v>
+        <v>469.7944548801176</v>
       </c>
       <c r="M5" t="n">
-        <v>522.7368507546753</v>
+        <v>522.7368507546754</v>
       </c>
       <c r="N5" t="n">
         <v>531.1952795044378</v>
       </c>
       <c r="O5" t="n">
-        <v>501.5926395113185</v>
+        <v>501.5926395113186</v>
       </c>
       <c r="P5" t="n">
         <v>428.0977130670564</v>
@@ -31361,16 +31361,16 @@
         <v>15.3834868774888</v>
       </c>
       <c r="I6" t="n">
-        <v>54.84122251965806</v>
+        <v>54.84122251965807</v>
       </c>
       <c r="J6" t="n">
         <v>150.4885062797394</v>
       </c>
       <c r="K6" t="n">
-        <v>257.2088266886943</v>
+        <v>257.2088266886944</v>
       </c>
       <c r="L6" t="n">
-        <v>345.8490090236525</v>
+        <v>345.8490090236526</v>
       </c>
       <c r="M6" t="n">
         <v>403.5894808867064</v>
@@ -31388,13 +31388,13 @@
         <v>203.3247057595068</v>
       </c>
       <c r="R6" t="n">
-        <v>98.89584025328404</v>
+        <v>98.89584025328405</v>
       </c>
       <c r="S6" t="n">
-        <v>29.58631558863079</v>
+        <v>29.5863155886308</v>
       </c>
       <c r="T6" t="n">
-        <v>6.420265413447864</v>
+        <v>6.420265413447865</v>
       </c>
       <c r="U6" t="n">
         <v>0.1047921449420218</v>
@@ -31434,7 +31434,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.335384054671009</v>
+        <v>1.33538405467101</v>
       </c>
       <c r="H7" t="n">
         <v>11.87277823152953</v>
@@ -31443,19 +31443,19 @@
         <v>40.15864048047001</v>
       </c>
       <c r="J7" t="n">
-        <v>94.41165266524035</v>
+        <v>94.41165266524037</v>
       </c>
       <c r="K7" t="n">
         <v>155.1473474426863</v>
       </c>
       <c r="L7" t="n">
-        <v>198.5351893644517</v>
+        <v>198.5351893644518</v>
       </c>
       <c r="M7" t="n">
-        <v>209.3275204972019</v>
+        <v>209.327520497202</v>
       </c>
       <c r="N7" t="n">
-        <v>204.3501799297919</v>
+        <v>204.350179929792</v>
       </c>
       <c r="O7" t="n">
         <v>188.750466200226</v>
@@ -31464,19 +31464,19 @@
         <v>161.5086314849373</v>
       </c>
       <c r="Q7" t="n">
-        <v>111.8202047961333</v>
+        <v>111.8202047961334</v>
       </c>
       <c r="R7" t="n">
-        <v>60.04372304002555</v>
+        <v>60.04372304002556</v>
       </c>
       <c r="S7" t="n">
-        <v>23.27210211640294</v>
+        <v>23.27210211640295</v>
       </c>
       <c r="T7" t="n">
         <v>5.705731869957948</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07283913025478241</v>
+        <v>0.07283913025478242</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869147</v>
+        <v>4.833130601869148</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639242</v>
+        <v>49.49729877639243</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203919</v>
+        <v>410.205918420392</v>
       </c>
       <c r="K11" t="n">
-        <v>614.792336797513</v>
+        <v>614.7923367975131</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544661</v>
+        <v>762.7042574544663</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954566</v>
+        <v>848.6554437954567</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180174</v>
+        <v>862.3875761180175</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956809</v>
+        <v>814.3281336956811</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620362</v>
+        <v>695.0102219620363</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825973</v>
+        <v>521.9237322825974</v>
       </c>
       <c r="R11" t="n">
         <v>303.5991401696631</v>
@@ -31789,10 +31789,10 @@
         <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.15702920968221</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495317</v>
+        <v>0.3866504481495318</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.585952849858575</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>24.97486041837098</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469216</v>
+        <v>89.03390294469217</v>
       </c>
       <c r="J12" t="n">
         <v>244.3158348193139</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598383</v>
+        <v>417.5746757598384</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747752</v>
+        <v>561.4806834747753</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821484</v>
+        <v>655.2214742821485</v>
       </c>
       <c r="N12" t="n">
-        <v>282.4162185798837</v>
+        <v>267.5398078833293</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924478</v>
+        <v>615.2639659924479</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383448</v>
+        <v>493.803575338345</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047542</v>
+        <v>330.0946129047543</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627656</v>
+        <v>48.03293999627657</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868434</v>
@@ -31914,16 +31914,16 @@
         <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798458</v>
+        <v>65.1969510279846</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085357</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329028</v>
+        <v>251.8793936329029</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100543</v>
+        <v>322.3189048100544</v>
       </c>
       <c r="M13" t="n">
         <v>339.8400926770066</v>
@@ -31935,19 +31935,19 @@
         <v>306.4335533806241</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493066</v>
+        <v>262.2068429493067</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>181.5384268194577</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811716</v>
+        <v>97.48008457811719</v>
       </c>
       <c r="S13" t="n">
         <v>37.78190904493542</v>
       </c>
       <c r="T13" t="n">
-        <v>9.26317018837749</v>
+        <v>9.263170188377492</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473724</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32084,28 +32084,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>650.5350891770663</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,7 +32558,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33284,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,25 +33974,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,16 +34448,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.4487373670537</v>
+        <v>21.44873736705378</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292135</v>
+        <v>83.39712583292146</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012656</v>
+        <v>140.7360160012657</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802094</v>
+        <v>188.5852654802096</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393758</v>
+        <v>196.297184739376</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605649</v>
+        <v>171.887904360565</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874002</v>
+        <v>111.8528537874004</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130796</v>
+        <v>35.33749497130808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.2907269326837</v>
+        <v>68.29072693268378</v>
       </c>
       <c r="L3" t="n">
-        <v>138.6157555714078</v>
+        <v>138.6157555714079</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3104407622268</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067318</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O3" t="n">
-        <v>161.123548150263</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528269</v>
+        <v>109.787502552827</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.75123316395896</v>
+        <v>89.7512331639593</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>45.02901441547814</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
         <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295331</v>
+        <v>207.3430310295332</v>
       </c>
       <c r="N4" t="n">
         <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854533</v>
+        <v>115.3609804484377</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369854</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.452847899353401</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.62407069553939</v>
+        <v>71.62407069553944</v>
       </c>
       <c r="K5" t="n">
         <v>158.596943878941</v>
       </c>
       <c r="L5" t="n">
-        <v>234.0280399101303</v>
+        <v>234.0280399101304</v>
       </c>
       <c r="M5" t="n">
-        <v>292.3906175274026</v>
+        <v>292.3906175274027</v>
       </c>
       <c r="N5" t="n">
         <v>301.7822159078469</v>
       </c>
       <c r="O5" t="n">
-        <v>271.4944280896318</v>
+        <v>271.4944280896319</v>
       </c>
       <c r="P5" t="n">
-        <v>196.8647173117868</v>
+        <v>196.8647173117869</v>
       </c>
       <c r="Q5" t="n">
-        <v>99.17786407219617</v>
+        <v>99.17786407219623</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>74.92229159861077</v>
+        <v>23.65087961307273</v>
       </c>
       <c r="K6" t="n">
-        <v>119.3673877143353</v>
+        <v>119.3673877143354</v>
       </c>
       <c r="L6" t="n">
-        <v>207.2946292437783</v>
+        <v>207.2946292437784</v>
       </c>
       <c r="M6" t="n">
         <v>261.4554469646881</v>
       </c>
       <c r="N6" t="n">
-        <v>282.9295814444632</v>
+        <v>334.2009934300012</v>
       </c>
       <c r="O6" t="n">
         <v>236.3810546668792</v>
       </c>
       <c r="P6" t="n">
-        <v>170.188286351386</v>
+        <v>170.1882863513861</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.4202194093343</v>
+        <v>273.4202194093344</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.052472548567579</v>
+        <v>1.052472548567593</v>
       </c>
       <c r="K7" t="n">
         <v>132.8778556168035</v>
@@ -35103,7 +35103,7 @@
         <v>248.9113974590425</v>
       </c>
       <c r="N7" t="n">
-        <v>248.4823523090205</v>
+        <v>248.4823523090206</v>
       </c>
       <c r="O7" t="n">
         <v>213.3355941142657</v>
@@ -35112,7 +35112,7 @@
         <v>158.7871907498308</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.65816154443895</v>
+        <v>25.65816154443898</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>560.2586790698759</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>474.3640795072288</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937056</v>
+        <v>229.1600138937057</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525325</v>
+        <v>394.7024857525326</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844788</v>
+        <v>526.937842484479</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681839</v>
+        <v>618.309210568184</v>
       </c>
       <c r="N11" t="n">
         <v>632.9745125214265</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739941</v>
+        <v>584.2299222739944</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067667</v>
+        <v>463.7772262067668</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081477</v>
+        <v>299.6180424081479</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553096</v>
+        <v>88.01360235553102</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>117.4782081526472</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854793</v>
+        <v>279.7332367854794</v>
       </c>
       <c r="L12" t="n">
-        <v>422.926303694901</v>
+        <v>422.9263036949012</v>
       </c>
       <c r="M12" t="n">
         <v>513.0874403601301</v>
       </c>
       <c r="N12" t="n">
-        <v>151.0745064965504</v>
+        <v>136.198095799996</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480033</v>
+        <v>472.6677215480034</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240146</v>
+        <v>359.8291679240147</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187327</v>
+        <v>190.1128388187328</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655359</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186287</v>
+        <v>59.9167231918629</v>
       </c>
       <c r="K13" t="n">
         <v>229.60990180702</v>
@@ -35577,16 +35577,16 @@
         <v>379.4239696388472</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323316</v>
+        <v>375.8916272323318</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946637</v>
+        <v>331.0186812946638</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142001</v>
+        <v>259.4854022142002</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776326</v>
+        <v>95.37638356776328</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>519.193377093733</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36756,7 +36756,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010451</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060445</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
